--- a/example.xlsx
+++ b/example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Работа\Репы гитхаб\Рабочие проекты\Проекты, которые уже буду закидывать (Без мусора)\script_for_medical_certificates\script_for_medical_certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B8323E-27C0-4E1B-8C2D-17749CE77061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF5B95B-AFF3-4A97-BF3E-353A5C3EAEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -77,78 +77,24 @@
     <t/>
   </si>
   <si>
-    <t>Сергей</t>
-  </si>
-  <si>
-    <t>Михайлович</t>
-  </si>
-  <si>
-    <t>Анатольевич</t>
-  </si>
-  <si>
-    <t>Александр</t>
-  </si>
-  <si>
-    <t>Юрьевич</t>
-  </si>
-  <si>
     <t>Противопоказаний не выявлено</t>
   </si>
   <si>
     <t>ГБ</t>
   </si>
   <si>
-    <t>Игорь</t>
-  </si>
-  <si>
-    <t>Владислав</t>
-  </si>
-  <si>
-    <t>Александрович</t>
-  </si>
-  <si>
-    <t>Васильевич</t>
-  </si>
-  <si>
-    <t>Виктор</t>
-  </si>
-  <si>
-    <t>Алексей</t>
-  </si>
-  <si>
     <t>0000-109083</t>
   </si>
   <si>
-    <t>Лесниченко</t>
-  </si>
-  <si>
-    <t>Евгений</t>
-  </si>
-  <si>
-    <t>Витальевич</t>
-  </si>
-  <si>
     <t>АО «МОСТРАНСАВТО» ГУП МО "МАП № 5"</t>
   </si>
   <si>
     <t>declined</t>
   </si>
   <si>
-    <t>Добрый день ответ был дан в рамках запроса ID 10133</t>
-  </si>
-  <si>
     <t>0000-032699</t>
   </si>
   <si>
-    <t>Сайдулаев</t>
-  </si>
-  <si>
-    <t>Равшан</t>
-  </si>
-  <si>
-    <t>Чингизович</t>
-  </si>
-  <si>
     <t>АО «МОСТРАНСАВТО» ГУП МО "МАП № 8"</t>
   </si>
   <si>
@@ -158,352 +104,154 @@
     <t>ГБ2,АГ1,риск 2-3,ИБС,ФП</t>
   </si>
   <si>
-    <t>Добрый день. Справка работника, Сайдулаев Равшан Чингизович, т.н.0000-032699, принята и прикреплена к личной карточке. Справка действительна до 13.10.2024 г. Указанный в представленном медицинском заключении диагноз входит в перечень медицинских противопоказаний к работе (Приказ Минздрава России от 28.01.2021 N 29н). Для рассмотрения возможности расширения индивидуальных границ выпуска, прошу предоставить результат действующего заключения предварительного/периодического медицинского осмотра. Во избежание осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям.</t>
-  </si>
-  <si>
-    <t>Расширить границы выпуска по заявке №644606</t>
-  </si>
-  <si>
     <t>ГБ 2, АГ 2ст, риск ССО 3</t>
   </si>
   <si>
-    <t>ID 10133 Добрый день. Справка работника Лесниченко Евгений Витальевич тн. 0000-109083 принята и добавлена к учётной записи. Справка действительна до 17.11.2024г. (срок действия медицинской документации 1 год). Указанный диагноз в представленной выписке из медицинской амбулаторной карты входит в перечень медицинских противопоказаний к работе (Приказ Минздрава России от 28.01.2021 N 29н). Для рассмотрения возможности расширения индивидуальных границ выпуска, прошу предоставить результат действующего заключения предварительного/периодического медицинского осмотра. Во избежание осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям.</t>
-  </si>
-  <si>
     <t>000939</t>
   </si>
   <si>
-    <t>Стенин</t>
-  </si>
-  <si>
     <t>АО «МОСТРАНСАВТО» ГУП МО "МАП № 4"</t>
   </si>
   <si>
     <t>ГБ 2ст риск 3</t>
   </si>
   <si>
-    <t>Запрос на обслуживание "644631" Добрый день.Справка работника принята и прикреплена к личной карточке. Указанный в представленном медицинском заключении диагноз входит в перечень медицинских противопоказаний к работе.Срок действия медицинской документации 1 год (до 07.11.2024г) (Приказ Минздрава России от 28.01.2021 N 29н). Для рассмотрения возможности расширения индивидуальных границ выпуска, прошу предоставить результат действующего заключения врача-профпатолога (предварительного/периодического медицинского осмотра). Во избежание осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям лечащего врача.</t>
-  </si>
-  <si>
     <t>00УП-000413</t>
   </si>
   <si>
-    <t>Молодцов</t>
-  </si>
-  <si>
     <t>АО «МОСТРАНСАВТО» ГУП МО "МАП № 7"</t>
   </si>
   <si>
     <t>Гипертоническая болезнь 2, компенсированная артериальная гипертензия 1ст, риск ССО низкий</t>
   </si>
   <si>
-    <t>Запрос на обслуживание "644627" Добрый день! Справка работника Молодцов Игорь Юрьевич тн. 00УП-000413 принята и прикреплена к личной карточке. Индивидуальные границы артериального давления расширены до 150/90 мм.рт.ст. Во избежание осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям лечащего врача. Индивидуальные границы будут действовать до 24.11.2024г.</t>
-  </si>
-  <si>
     <t>0000-025769</t>
   </si>
   <si>
-    <t>Белоусов</t>
-  </si>
-  <si>
-    <t>Вячеславович</t>
-  </si>
-  <si>
-    <t>Здравствуйте. В данной справке невозможно разобрать диагноз и дату выдачи справки. Прошу предоставить копию документа в читабельном формате.</t>
-  </si>
-  <si>
-    <t>Расширить границы выпуска по заявке 644752</t>
-  </si>
-  <si>
     <t>противопоказаний не выявлено</t>
   </si>
   <si>
-    <t>Запрос на обслуживание "644748" Добрый день.Заключение периодического медицинского осмотра работника принято и добавлено к личной карточке. Срок действия 2 года от даты выдачи. Индивидуальные границы артериального давления на основании указанного диагноза в предоставленной справке расширены до 150/90 мм.рт.ст. Во избежание осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям. Индивидуальные границы будут действовать до 07.11.2024 г.</t>
-  </si>
-  <si>
     <t>0000-014824</t>
   </si>
   <si>
-    <t>Дейцев</t>
-  </si>
-  <si>
-    <t>Эдуард</t>
-  </si>
-  <si>
-    <t>Николаевич</t>
-  </si>
-  <si>
     <t>ГБ 1 риск 2</t>
   </si>
   <si>
-    <t>ID 10160. Добрый день. Справка работника, Дейцев Эдуард Николаевич т.н. 0000-014824, принята и добавлена к личной карточке. Индивидуальные границы артериального давления расширены до 155/100 мм.рт.ст.Во избежание осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям. Срок действия медицинской документации 1 год, индивидуальные границы будут действовать до 09.11.2024 г.</t>
-  </si>
-  <si>
-    <t>добрый день, водитель представил мед.документ, просим рассмотреть вопрос о расширении границ АД</t>
-  </si>
-  <si>
     <t>0000-026078</t>
   </si>
   <si>
-    <t>Огурцов</t>
-  </si>
-  <si>
-    <t>Егорович</t>
-  </si>
-  <si>
     <t>противопоказаний нет</t>
   </si>
   <si>
-    <t>Запрос на обслуживание "644870" Заключение ПМО работника Огурцов Сергей Егорович тн.0000-026078 принято. На основании ранее предоставленного заключения индивидуальные границы артериального давления расширены до 155/99 мм.рт.ст.Во избежание осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям. Срок действия медицинской документации 1 год, индивидуальные границы будут действовать до 16.11.2024 г.</t>
-  </si>
-  <si>
     <t>0000-101010</t>
   </si>
   <si>
-    <t>Поляков</t>
-  </si>
-  <si>
-    <t>Игоревич</t>
-  </si>
-  <si>
     <t>АГ</t>
   </si>
   <si>
-    <t>доброе утро, водитель представил справку 027у, просим рассмотреть вопрос о расширении границ АД</t>
-  </si>
-  <si>
-    <t>Добрый день. Справка работника, Поляков Сергей Игоревич, т. н. 0000-101010, принята и прикреплена к личной карточке. Согласно предоставленной выписке от лечащего врача индивидуальные границы артериального давления расширены до 145/90 мм рт. ст. Во избежании осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям. Срок действия медицинской документации 1 год, индивидуальные границы будут действовать до 20.11.2024 г.</t>
-  </si>
-  <si>
     <t>0000-114830</t>
   </si>
   <si>
-    <t>Женихов</t>
-  </si>
-  <si>
-    <t>Владимир</t>
-  </si>
-  <si>
-    <t>Надарьевич</t>
-  </si>
-  <si>
     <t>АО «МОСТРАНСАВТО» ГУП МО "МАП № 9"</t>
   </si>
   <si>
     <t>ГБ 2ст. 2ст.</t>
   </si>
   <si>
-    <t>Запрос на обслуживание "645159" Добрый день. Справка работника принята и добавлена к личной карточке. Индивидуальные границы артериального давления расширены до 155/100 мм.рт.ст. Во избежание осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям. Срок действия медицинской документации 1 год, индивидуальные границы будут действовать до 17.11. 2024 г.</t>
-  </si>
-  <si>
     <t>0000-116605</t>
   </si>
   <si>
-    <t>Корнеев</t>
-  </si>
-  <si>
     <t>АО «МОСТРАНСАВТО» ГУП МО "МАП № 11"</t>
   </si>
   <si>
     <t>I11.9 ГБ 2 ст., 2 ст., риск 2</t>
   </si>
   <si>
-    <t>Запрос на обслуживание "645197" Добрый день. Справка работника, Корнеев Сергей Александрович, т. н. 0000-116605, принята и прикреплена к личной карточке. Индивидуальные границы выпуска АД на основании указанного диагноза расширены до 155/99 мм рт. ст. Срок действия медицинской документации 1 год, индивидуальные границы будут действовать до 24.11.2024 г. Во избежание осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям.</t>
-  </si>
-  <si>
     <t>0000-020301</t>
   </si>
   <si>
-    <t>Комысев</t>
-  </si>
-  <si>
-    <t>Юрий</t>
-  </si>
-  <si>
     <t>ГБ 1ст. риск 2 контролируемая</t>
   </si>
   <si>
-    <t>Запрос на обслуживание "645159" Добрый день. Справка работника принята и добавлена к личной карточке. Индивидуальные границы артериального давления расширены до 155/100 мм.рт.ст. Во избежание осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям. Срок действия медицинской документации 1 год, индивидуальные границы будут действовать до 16.11. 2024 г.</t>
-  </si>
-  <si>
     <t>0000-101434</t>
   </si>
   <si>
-    <t>Кодиров</t>
-  </si>
-  <si>
-    <t>Султонали</t>
-  </si>
-  <si>
-    <t>Турсунбоевич</t>
-  </si>
-  <si>
-    <t>Запрос на обслуживание "645159" Добрый день. Справка работника отклонена, в справке отсутствует диагноз, на основании которого будут установлены индивидуальные границы АД. Для рассмотрения возможности расширения индивидуальных границ выпуска, прошу предоставить справку по форме 027/у с окончательным диагнозом. Вопрос расширения границ АД будет рассмотрен повторно.</t>
-  </si>
-  <si>
     <t>00УП-000269</t>
   </si>
   <si>
-    <t>Жуков</t>
-  </si>
-  <si>
     <t>ГБ 2 ст, риск 3</t>
   </si>
   <si>
-    <t>Добрый день. Справка работника Жуков Владимир Николаевич, т.н. 00УП-000269 принята и добавлена к личной карточке. Срок действия медицинской документации 1 год с даты выдачи. Указанный в представленном медицинском заключении диагноз входит в перечень медицинских противопоказаний к работе (Приказ Минздрава России от 28.01.2021 N 29н). Для рассмотрения возможности расширения индивидуальных границ выпуска, прошу предоставить результат действующего заключения предварительного/периодического медицинского осмотра. Во избежание осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям. Запрос на обслуживание "645802"</t>
-  </si>
-  <si>
     <t>0000-016274</t>
   </si>
   <si>
-    <t>Петренко</t>
-  </si>
-  <si>
-    <t>Анатолий</t>
-  </si>
-  <si>
-    <t>Добрый день. Справка работника, Петренко Анатолий Михайлович, таб. н. 0000-016274, отклонена, в предоставленной справке отсутствует диагноз на основании которого возможно расширение границ. Для рассмотрения возможности расширения индивидуальных границ выпуска, прошу предоставить справку по форме 027/у с окончательным диагнозом. Вопрос расширения границ АД будет рассмотрен повторно.Срок действия медицинской документации 1 год с даты выдачи. Справка должна иметь официальное оформление: диагноз, дату выдачи, 3 печати (печать медицинского учреждения, печать врача, печать "для справок") и подпись врача.</t>
-  </si>
-  <si>
-    <t>Запрос на обслуживание "645774".</t>
-  </si>
-  <si>
     <t>0000-113715</t>
   </si>
   <si>
-    <t>Ляхов</t>
-  </si>
-  <si>
     <t>АО «МОСТРАНСАВТО» ГУП МО "МАП № 1"</t>
   </si>
   <si>
     <t>АГ 1 ст., риск 2</t>
   </si>
   <si>
-    <t>Добрый день. Справка работника, Ляхов Владислав Анатольевич, т. н. 0000-113715, принята и прикреплена к личной карточке. Индивидуальные границы выпуска АД согласно предоставленной выписке расширены до 155/99 мм рт. ст. Срок действия медицинской документации 1 год, индивидуальные границы будут действовать до 27.11.2024 г. Во избежание осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям.</t>
-  </si>
-  <si>
-    <t>Расширение границ АД</t>
-  </si>
-  <si>
     <t>0000-8198</t>
   </si>
   <si>
-    <t>Чернов</t>
-  </si>
-  <si>
-    <t>Фомич</t>
-  </si>
-  <si>
     <t>АО «МОСТРАНСАВТО» ГУП МО "МАП № 10"</t>
   </si>
   <si>
-    <t>АД 120/80 мм. рт. ст.</t>
-  </si>
-  <si>
-    <t>Добрый день. Справка работника, Чернов Алексей Фомич, т.н. 0000-8198, отклонена. В предоставленной справке отсутствует диагноз, на основании которого возможно расширение индивидуальных границ. Работнику необходимо пройти дополнительное обследование для установления причины повышенного артериального давления и назначения ему корректирующего лечения. Справка должна иметь официальное оформление: диагноз, печать лечебного учреждения, печать и подпись врача, печать "для справок / документов", дату выдачи.</t>
-  </si>
-  <si>
     <t>0000-029058</t>
   </si>
   <si>
-    <t>Родин</t>
-  </si>
-  <si>
     <t>Иванович</t>
   </si>
   <si>
     <t>ГБ 1-2 ст</t>
   </si>
   <si>
-    <t>добрый день,работник представил справку, просим рассмотреть вопрос о расширении ему границ АД</t>
-  </si>
-  <si>
-    <t>Добрый день. Справка работника, Родин Виктор Иванович, т. н. 0000-029058, принята и прикреплена к личной карточке. Согласно предоставленной выписке от лечащего врача индивидуальные границы артериального давления расширены до 145/95 мм рт. ст. Во избежании осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям. Срок действия медицинской документации 1 год, индивидуальные границы будут действовать до 20.11.2024 г.</t>
-  </si>
-  <si>
     <t>0000-013158</t>
   </si>
   <si>
-    <t>Масленников</t>
-  </si>
-  <si>
     <t>АО «МОСТРАНСАВТО» ГУП МО "МАП № 12"</t>
   </si>
   <si>
-    <t>Запрос на обслуживание "646020". Добрый день. Заключение первичного медицинского осмотра работника, Масленников Владимир Александрович, 0000-013158, принято и прикреплено к личной карточке. Срок действия медицинской документации 2 года с даты выдачи.</t>
-  </si>
-  <si>
     <t>ИБС, ГБ</t>
   </si>
   <si>
-    <t>Запрос на обслуживание "646020". Добрый день. Справка работника, Масленников Владимир Александрович, 0000-013158, принята и прикреплена к личной карточке. Индивидуальные границы артериального давления расширены до 155/100 мм.рт.ст. Во избежание осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям лечащего врача. Индивидуальные границы выпуска АД будут действовать до 23.11.2024г.</t>
-  </si>
-  <si>
     <t>Гипертоническая болезнь 2ст, контролируемая, риск ССО 3, без застойной сердечной недостаточности</t>
   </si>
   <si>
-    <t>Запрос на обслуживание "646351" Добрый день. Справка работника Белоусов Алексей Вячеславович тн. 0000-025769 принята и добавлена к учётной записи. Справка действительна до 15.11.2024г. (срок действия медицинской документации 1 год). Указанный диагноз в представленной выписке из медицинской амбулаторной карты входит в перечень медицинских противопоказаний к работе (Приказ Минздрава России от 28.01.2021 N 29н). Для рассмотрения возможности расширения индивидуальных границ выпуска, прошу предоставить результат действующего заключения предварительного/периодического медицинского осмотра. Во избежание осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям.</t>
-  </si>
-  <si>
     <t>0000-106009</t>
   </si>
   <si>
-    <t>Малышев</t>
-  </si>
-  <si>
     <t>ГБ2ст. р3</t>
   </si>
   <si>
-    <t>Запрос на обслуживание "645984" Добрый день справка работника Малышев Юрий Васильевич тн. 0000-106009 принята. Указанный диагноз в представленной выписке из медицинской амбулаторной карты входит в перечень медицинских противопоказаний к работе (Приказ Минздрава России от 28.01.2021 N 29н). Для рассмотрения возможности расширения индивидуальных границ выпуска, прошу предоставить результат действующего заключения предварительного/периодического медицинского осмотра. Во избежание осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям.</t>
-  </si>
-  <si>
     <t>0000-026092</t>
   </si>
   <si>
-    <t>Петров</t>
-  </si>
-  <si>
     <t>Артериальная гипертензия 2, р2</t>
   </si>
   <si>
-    <t>Запрос на обслуживание "646409" Добрый день. Справка работника ,Петров Евгений Николаевич тн. 0000-026092, принята и прикреплена к личной карточке. Согласно рекомендациям в предоставленной справке от лечащего врача, границы артериального давления расширены до 159/99 мм.рт.ст. Во избежании осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям. Срок действия медицинской документации 1 год, индивидуальные границы будут действовать до 22.08.2024 г.</t>
-  </si>
-  <si>
     <t>000865</t>
   </si>
   <si>
-    <t>Дмитрий</t>
-  </si>
-  <si>
-    <t>Запрос на обслуживание "646413" Добрый день. Справка работника ,Петров Дмитрий Николаевич тн. 000865, принята и прикреплена к личной карточке. Согласно рекомендациям в предоставленной справке от лечащего врача, границы артериального давления расширены до 159/99 мм.рт.ст. Во избежании осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям. Срок действия медицинской документации 1 год, индивидуальные границы будут действовать до 23.11.2024 г.</t>
-  </si>
-  <si>
     <t>Медицинские противопоказания к работе не выявлены</t>
   </si>
   <si>
-    <t>Запрос на обслуживание "646551" Добрый день. Заключение периодического медицинского осмотра работника, Белоусов Алексей Вячеславович, т.н. 0000-025769, принято и прикреплено к личной карточке. Индивидуальные границы выпуска по АД расширены до 155/100 мм.рт.ст. Во избежание осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям лечащего врача.</t>
-  </si>
-  <si>
     <t>0000-032320</t>
   </si>
   <si>
-    <t>Долганюк</t>
-  </si>
-  <si>
-    <t>Запрос на обслуживание "646552" Добрый день. Справка работника, Долганюк Анатолий Васильевич, т.н. 0000-032320, принята и добавлена к личной карточке. Индивидуальные границы выпуска по АД на основании указанного диагноза расширены до 155/100 мм.рт.ст. Во избежание осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям лечащего врача.</t>
-  </si>
-  <si>
     <t>00УП-000327</t>
   </si>
   <si>
-    <t>Лопатин</t>
-  </si>
-  <si>
-    <t>Сергеевич</t>
-  </si>
-  <si>
-    <t>Запрос на обслуживание "646556" Добрый день. Справка работника, Лопатин Александр Сергеевич, т.н. 00УП-000327, принята и добавлена к личной карточке. Указанный в представленном медицинском заключении диагноз входит в перечень медицинских противопоказаний к работе (Приказ Минздрава России от 28.01.2021 N 29н). Для рассмотрения возможности расширения индивидуальных границ выпуска, прошу предоставить результат действующего заключения предварительного/периодического медицинского осмотра. Во избежание осложнений со стороны сердечно-сосудистой системы, развития инфаркта/инсульта, работнику рекомендуется в полном объеме следовать назначенному лечению и рекомендациям.</t>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>comment</t>
   </si>
 </sst>
 </file>
@@ -892,7 +640,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE09B7A3-D236-4140-BA3F-887C539D249B}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -948,31 +698,31 @@
         <v>10131</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F2">
         <v>1468</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="K2" s="1">
         <v>45257.53229166667</v>
@@ -983,31 +733,31 @@
         <v>10132</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>1471</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="K3" s="1">
         <v>45257.403773148151</v>
@@ -1018,31 +768,31 @@
         <v>10132</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F4">
         <v>1471</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K4" s="1">
         <v>45257.402326388888</v>
@@ -1053,31 +803,31 @@
         <v>10133</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F5">
         <v>1468</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="K5" s="1">
         <v>45257.531377314815</v>
@@ -1088,31 +838,31 @@
         <v>10140</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>1467</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="K6" s="1">
         <v>45257.475740740738</v>
@@ -1123,31 +873,31 @@
         <v>10148</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F7">
         <v>1470</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K7" s="1">
         <v>45257.514837962961</v>
@@ -1158,31 +908,31 @@
         <v>10149</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8">
         <v>1467</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="K8" s="1">
         <v>45257.516793981478</v>
@@ -1193,31 +943,31 @@
         <v>10149</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>1467</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="K9" s="1">
         <v>45257.516284722224</v>
@@ -1228,31 +978,31 @@
         <v>10154</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F10">
         <v>1467</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="K10" s="1">
         <v>45257.52851851852</v>
@@ -1263,31 +1013,31 @@
         <v>10160</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F11">
         <v>1467</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K11" s="1">
         <v>45257.872199074074</v>
@@ -1298,31 +1048,31 @@
         <v>10160</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F12">
         <v>1467</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K12" s="1">
         <v>45257.562222222223</v>
@@ -1333,31 +1083,31 @@
         <v>10174</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F13">
         <v>1467</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K13" s="1">
         <v>45257.957337962966</v>
@@ -1368,31 +1118,31 @@
         <v>10176</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F14">
         <v>1467</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K14" s="1">
         <v>45258.37841435185</v>
@@ -1403,31 +1153,31 @@
         <v>10176</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F15">
         <v>1467</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K15" s="1">
         <v>45258.531759259262</v>
@@ -1438,31 +1188,31 @@
         <v>10188</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F16">
         <v>1472</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="K16" s="1">
         <v>45258.449386574073</v>
@@ -1473,31 +1223,31 @@
         <v>10190</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F17">
         <v>1474</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K17" s="1">
         <v>45258.467303240737</v>
@@ -1508,31 +1258,31 @@
         <v>10199</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F18">
         <v>1472</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="J18" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="K18" s="1">
         <v>45258.522951388892</v>
@@ -1543,31 +1293,31 @@
         <v>10200</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="F19">
         <v>1472</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
       </c>
       <c r="J19" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="K19" s="1">
         <v>45258.52679398148</v>
@@ -1578,31 +1328,31 @@
         <v>10225</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F20">
         <v>1470</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="J20" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="K20" s="1">
         <v>45259.50576388889</v>
@@ -1613,31 +1363,31 @@
         <v>10226</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F21">
         <v>1472</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
       </c>
       <c r="J21" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="K21" s="1">
         <v>45259.508298611108</v>
@@ -1648,31 +1398,31 @@
         <v>10226</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F22">
         <v>1472</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
       </c>
       <c r="J22" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="K22" s="1">
         <v>45259.506967592592</v>
@@ -1683,31 +1433,31 @@
         <v>10229</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F23">
         <v>1464</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="J23" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="K23" s="1">
         <v>45259.921134259261</v>
@@ -1718,31 +1468,31 @@
         <v>10229</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F24">
         <v>1464</v>
       </c>
       <c r="G24" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="J24" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="K24" s="1">
         <v>45259.567060185182</v>
@@ -1753,31 +1503,31 @@
         <v>10231</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="F25">
         <v>1473</v>
       </c>
       <c r="G25" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I25" t="s">
         <v>11</v>
       </c>
       <c r="J25" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="K25" s="1">
         <v>45259.583784722221</v>
@@ -1788,31 +1538,31 @@
         <v>10231</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="F26">
         <v>1473</v>
       </c>
       <c r="G26" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
       </c>
       <c r="J26" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K26" s="1">
         <v>45259.928761574076</v>
@@ -1823,31 +1573,31 @@
         <v>10232</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="F27">
         <v>1467</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H27" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="J27" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="K27" s="1">
         <v>45259.608368055553</v>
@@ -1858,31 +1608,31 @@
         <v>10232</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="F28">
         <v>1467</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="J28" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="K28" s="1">
         <v>45259.932685185187</v>
@@ -1893,31 +1643,31 @@
         <v>10250</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F29">
         <v>1475</v>
       </c>
       <c r="G29" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="H29" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J29" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="K29" s="1">
         <v>45260.488877314812</v>
@@ -1928,31 +1678,31 @@
         <v>10251</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F30">
         <v>1475</v>
       </c>
       <c r="G30" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="H30" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="J30" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="K30" s="1">
         <v>45260.498090277775</v>
@@ -1963,31 +1713,31 @@
         <v>10252</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F31">
         <v>1467</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H31" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="J31" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="K31" s="1">
         <v>45260.49827546296</v>
@@ -1998,31 +1748,31 @@
         <v>10253</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F32">
         <v>1470</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H32" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I32" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="J32" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="K32" s="1">
         <v>45260.511863425927</v>
@@ -2033,31 +1783,31 @@
         <v>10257</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F33">
         <v>1467</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H33" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I33" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="J33" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="K33" s="1">
         <v>45260.528090277781</v>
@@ -2068,31 +1818,31 @@
         <v>10259</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F34">
         <v>1467</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H34" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I34" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="J34" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="K34" s="1">
         <v>45260.537789351853</v>
@@ -2103,31 +1853,31 @@
         <v>10272</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35">
         <v>1467</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H35" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="J35" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="K35" s="1">
         <v>45260.96371527778</v>
@@ -2138,31 +1888,31 @@
         <v>10273</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F36">
         <v>1471</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H36" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I36" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="K36" s="1">
         <v>45260.971342592595</v>
@@ -2173,31 +1923,31 @@
         <v>10274</v>
       </c>
       <c r="B37" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="F37">
         <v>1470</v>
       </c>
       <c r="G37" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H37" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I37" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="J37" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="K37" s="1">
         <v>45260.974780092591</v>
